--- a/medicine/Enfance/Audren_(auteur-interprète)/Audren_(auteur-interprète).xlsx
+++ b/medicine/Enfance/Audren_(auteur-interprète)/Audren_(auteur-interprète).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Audren_(auteur-interpr%C3%A8te)</t>
+          <t>Audren_(auteur-interprète)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Audren (née à Paris) est une écrivaine, poète et auteur-compositeur-interprète de chansons.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Audren_(auteur-interpr%C3%A8te)</t>
+          <t>Audren_(auteur-interprète)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Audren a vécu aux États-Unis où elle a appris le chant et la danse mais c'est en France qu'elle a obtenu une licence de Lettres et d’Arts plastiques. Elle a également suivi une formation de scénariste à La Femis. Elle aime les voyages et écrit depuis toujours pour s'inventer des périples supplémentaires  
-[1]. 
-Lorsqu'elle n'écrit pas, elle chante (pop/soul/groove).  Avec son compagnon le guitariste-compositeur Chris Rime][2], elle a co-réalisé plusieurs albums mais aussi des chansons pour le cinéma, la télévision, les jeux vidéo, dont  le titre The darkstone will shine qui accompagne le jeu vidéo Darkstone (1 million d’exemplaires vendus dans le monde (PC et Playstation)[3].
-En 2003, gravement atteinte  et immobilisée par la maladie de lyme, Audren s'est vue contrainte d'arrêter de chanter pendant plusieurs années et s'est alors  tournée vers l'écriture[4]. Ainsi est-elle  devenue aujourd'hui l'auteure  d'une quarantaine de romans (dont certains best sellers, plus de 500.000 exemplaires vendus), de pièces de théâtre, et de recueils de poèmes.
+. 
+Lorsqu'elle n'écrit pas, elle chante (pop/soul/groove).  Avec son compagnon le guitariste-compositeur Chris Rime], elle a co-réalisé plusieurs albums mais aussi des chansons pour le cinéma, la télévision, les jeux vidéo, dont  le titre The darkstone will shine qui accompagne le jeu vidéo Darkstone (1 million d’exemplaires vendus dans le monde (PC et Playstation).
+En 2003, gravement atteinte  et immobilisée par la maladie de lyme, Audren s'est vue contrainte d'arrêter de chanter pendant plusieurs années et s'est alors  tournée vers l'écriture. Ainsi est-elle  devenue aujourd'hui l'auteure  d'une quarantaine de romans (dont certains best sellers, plus de 500.000 exemplaires vendus), de pièces de théâtre, et de recueils de poèmes.
 Sa santé s'améliorant, Audren est finalement revenue à la musique  (Albums "Healing Blue" 2009 et "Mama's groove" en 2015).
 Elle a aussi  écrit et  réalisé son premier court métrage (25 minutes) en 2015  ("George Clooney".)
-Ses romans  sont distingués et primés par de nombreux jurys littéraires[5]
+Ses romans  sont distingués et primés par de nombreux jurys littéraires
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Audren_(auteur-interpr%C3%A8te)</t>
+          <t>Audren_(auteur-interprète)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Neuf, Éditions du Seuil, points Virgule , 2002
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neuf, Éditions du Seuil, points Virgule , 2002
 Comptines du bout du nez, poèmes, Éditions Blanc Silex, 2003
 L'Autre, L'École des loisirs, collection Médium, 2006
 Le Paradis d'en bas - tome 1, L'École des loisirs, collection Neuf, 2006
@@ -594,9 +613,43 @@
 L'art discret de bien mentir, Editions City, 2017
 Trois histoires de Noël pas comme les autres, Albin Michel Jeunesse, 2017
 La petite épopée des pions, Editions MeMo, 2018
-Les vrais filles et les vraies garçons, Editions Thierry Magnier, 2019
-Enregistrements
-1997 : Soul preserves - Crime prod, Night and day . (L.P)
+Les vrais filles et les vraies garçons, Editions Thierry Magnier, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Audren_(auteur-interprète)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Audren_(auteur-interpr%C3%A8te)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Enregistrements</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1997 : Soul preserves - Crime prod, Night and day . (L.P)
 1998:  Stairway to heaven - Crime prod, Night and day. (Single)
 2001 : The Darkstone will shine (chanson du jeu vidéo Darkstone) - SONY. (Single)
 2003 : Private lounge ( with Bühl, many rainbows) . EMI
